--- a/sample_profile/Sample Specs.xlsx
+++ b/sample_profile/Sample Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Lung Imaging\LAPD_Analysis\sample_profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7568C-DABA-4FE9-AD86-9A092F15F82E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C7B6C1-F60B-45F4-A7A0-BB4947D0DEFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
+    <workbookView xWindow="16170" yWindow="6825" windowWidth="21600" windowHeight="11385" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sample_profile/Sample Specs.xlsx
+++ b/sample_profile/Sample Specs.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Lung Imaging\LAPD_Analysis\sample_profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C7B6C1-F60B-45F4-A7A0-BB4947D0DEFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CAACEC-E4FC-4296-BAE7-4E0CE8359B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="6825" windowWidth="21600" windowHeight="11385" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
   <si>
     <t>m01</t>
   </si>
@@ -505,7 +509,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,16 +559,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>19.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -573,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>109000000</v>
+        <v>74300000</v>
       </c>
       <c r="H2">
-        <v>1154.3499999999999</v>
+        <v>1067.1400000000001</v>
       </c>
       <c r="I2">
-        <v>1849</v>
+        <v>1556</v>
       </c>
       <c r="J2">
-        <v>2004</v>
+        <v>1817</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -590,7 +594,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -599,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,33 +612,33 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>74300000</v>
+        <v>124000000</v>
       </c>
       <c r="H3">
-        <v>1067.1400000000001</v>
+        <v>1103.3499999999999</v>
       </c>
       <c r="I3">
-        <v>1556</v>
+        <v>1670</v>
       </c>
       <c r="J3">
-        <v>1817</v>
+        <v>1912</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>23.8</v>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -642,34 +646,34 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
+      <c r="G4">
+        <v>109000000</v>
       </c>
       <c r="H4">
-        <v>1142.07</v>
+        <v>1154.3499999999999</v>
       </c>
       <c r="I4">
-        <v>1309</v>
+        <v>1849</v>
       </c>
       <c r="J4">
-        <v>1725</v>
+        <v>2004</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>24.4</v>
+        <v>23.4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -678,33 +682,33 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>265000000</v>
+        <v>383000000</v>
       </c>
       <c r="H5">
-        <v>1224.19</v>
+        <v>1097.3</v>
       </c>
       <c r="I5">
-        <v>994</v>
+        <v>1449</v>
       </c>
       <c r="J5">
-        <v>1167</v>
+        <v>1990</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>23.7</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -712,34 +716,34 @@
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
+      <c r="G6">
+        <v>137000000</v>
       </c>
       <c r="H6">
-        <v>1211.22</v>
+        <v>1128.4000000000001</v>
       </c>
       <c r="I6">
-        <v>1348</v>
+        <v>1246</v>
       </c>
       <c r="J6">
-        <v>1709</v>
+        <v>1810</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>21</v>
+      <c r="D7" t="s">
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -748,33 +752,33 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>124000000</v>
+        <v>112000000</v>
       </c>
       <c r="H7">
-        <v>1103.3499999999999</v>
+        <v>1144.6600000000001</v>
       </c>
       <c r="I7">
-        <v>1670</v>
+        <v>1339</v>
       </c>
       <c r="J7">
-        <v>1912</v>
+        <v>1797</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -786,16 +790,16 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>1116.76</v>
+        <v>1142.07</v>
       </c>
       <c r="I8">
-        <v>1564</v>
+        <v>1309</v>
       </c>
       <c r="J8">
-        <v>1680</v>
+        <v>1725</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -835,16 +839,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -852,17 +856,17 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10">
-        <v>137000000</v>
+      <c r="G10" t="s">
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1128.4000000000001</v>
+        <v>1116.76</v>
       </c>
       <c r="I10">
-        <v>1246</v>
+        <v>1564</v>
       </c>
       <c r="J10">
-        <v>1810</v>
+        <v>1680</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
@@ -870,16 +874,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -887,17 +891,17 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>112000000</v>
+      <c r="G11" t="s">
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>1144.6600000000001</v>
+        <v>1444.02</v>
       </c>
       <c r="I11">
-        <v>1339</v>
+        <v>1621</v>
       </c>
       <c r="J11">
-        <v>1797</v>
+        <v>1766</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
@@ -905,16 +909,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -923,24 +927,24 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>383000000</v>
+        <v>624000000</v>
       </c>
       <c r="H12">
-        <v>1097.3</v>
+        <v>1197.04</v>
       </c>
       <c r="I12">
-        <v>1449</v>
+        <v>1512</v>
       </c>
       <c r="J12">
-        <v>1990</v>
+        <v>1855</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -949,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -958,33 +962,33 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>624000000</v>
+        <v>373000000</v>
       </c>
       <c r="H13">
-        <v>1197.04</v>
+        <v>1202.26</v>
       </c>
       <c r="I13">
-        <v>1512</v>
+        <v>1613</v>
       </c>
       <c r="J13">
-        <v>1855</v>
+        <v>1866</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -993,33 +997,33 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>373000000</v>
+        <v>265000000</v>
       </c>
       <c r="H14">
-        <v>1202.26</v>
+        <v>1224.19</v>
       </c>
       <c r="I14">
-        <v>1613</v>
+        <v>994</v>
       </c>
       <c r="J14">
-        <v>1866</v>
+        <v>1167</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1028,19 +1032,19 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1444.02</v>
+        <v>1211.22</v>
       </c>
       <c r="I15">
-        <v>1621</v>
+        <v>1348</v>
       </c>
       <c r="J15">
-        <v>1766</v>
+        <v>1709</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,16 +1084,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1101,13 +1105,13 @@
         <v>24</v>
       </c>
       <c r="H17">
-        <v>1122.8399999999999</v>
+        <v>1062.17</v>
       </c>
       <c r="I17">
-        <v>2211</v>
+        <v>1838</v>
       </c>
       <c r="J17">
-        <v>2327</v>
+        <v>1905</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
@@ -1115,16 +1119,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1136,13 +1140,13 @@
         <v>24</v>
       </c>
       <c r="H18">
-        <v>1062.17</v>
+        <v>1122.8399999999999</v>
       </c>
       <c r="I18">
-        <v>1838</v>
+        <v>2211</v>
       </c>
       <c r="J18">
-        <v>1905</v>
+        <v>2327</v>
       </c>
       <c r="K18" t="s">
         <v>4</v>
@@ -1184,7 +1188,525 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K19" xr:uid="{5A51B8E3-A1BE-4EDC-9F9E-3F7284F842DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K19">
+    <sortCondition ref="E2:E19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A2DD30-BD0E-44AC-9125-9F05680EE152}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>19.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>23.4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>23.7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>23.8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>24.1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>24.5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>23.4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>24.4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>23.8</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>23.2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>24.1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_profile/Sample Specs.xlsx
+++ b/sample_profile/Sample Specs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Lung Imaging\LAPD_Analysis\sample_profile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\LAPD_Analysis\sample_profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CAACEC-E4FC-4296-BAE7-4E0CE8359B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16977AB-EBE9-442C-B60A-879A62A7F6DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
   </bookViews>
@@ -190,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A9CF87-BF1B-4ACF-BA9D-771153123C0A}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +577,7 @@
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>74300000</v>
       </c>
       <c r="H2">
@@ -611,7 +612,7 @@
       <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>124000000</v>
       </c>
       <c r="H3">
@@ -646,7 +647,7 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>109000000</v>
       </c>
       <c r="H4">
@@ -681,7 +682,7 @@
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>383000000</v>
       </c>
       <c r="H5">
@@ -716,7 +717,7 @@
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>137000000</v>
       </c>
       <c r="H6">
@@ -751,7 +752,7 @@
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>112000000</v>
       </c>
       <c r="H7">
@@ -786,7 +787,7 @@
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H8">
@@ -821,7 +822,7 @@
       <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H9">
@@ -856,7 +857,7 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H10">
@@ -891,7 +892,7 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H11">
@@ -926,7 +927,7 @@
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>624000000</v>
       </c>
       <c r="H12">
@@ -961,7 +962,7 @@
       <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>373000000</v>
       </c>
       <c r="H13">
@@ -996,7 +997,7 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>265000000</v>
       </c>
       <c r="H14">
@@ -1031,7 +1032,7 @@
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H15">
@@ -1066,7 +1067,7 @@
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H16">
@@ -1101,7 +1102,7 @@
       <c r="F17">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H17">
@@ -1136,7 +1137,7 @@
       <c r="F18">
         <v>15</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H18">
@@ -1171,7 +1172,7 @@
       <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H19">
@@ -1186,6 +1187,15 @@
       <c r="K19" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K19" xr:uid="{5A51B8E3-A1BE-4EDC-9F9E-3F7284F842DD}"/>

--- a/sample_profile/Sample Specs.xlsx
+++ b/sample_profile/Sample Specs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\LAPD_Analysis\sample_profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16977AB-EBE9-442C-B60A-879A62A7F6DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9141CD15-C7F6-438A-A6B9-7916C9CBF875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D7256AA9-00ED-4A7F-9B95-2BD91D614F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$19</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="66">
   <si>
     <t>m01</t>
   </si>
@@ -155,6 +156,84 @@
   </si>
   <si>
     <t>Number_of_Airway_Outlets</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Wt.</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>m19</t>
+  </si>
+  <si>
+    <t>m20</t>
+  </si>
+  <si>
+    <t>m21</t>
+  </si>
+  <si>
+    <t>m22</t>
+  </si>
+  <si>
+    <t>m23</t>
+  </si>
+  <si>
+    <t>m24</t>
+  </si>
+  <si>
+    <t>m25</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>m26</t>
+  </si>
+  <si>
+    <t>m27</t>
+  </si>
+  <si>
+    <t>m28</t>
+  </si>
+  <si>
+    <t>m29</t>
+  </si>
+  <si>
+    <t>m30</t>
+  </si>
+  <si>
+    <t>m31</t>
+  </si>
+  <si>
+    <t>m32</t>
+  </si>
+  <si>
+    <t>m33</t>
+  </si>
+  <si>
+    <t>m34</t>
+  </si>
+  <si>
+    <t>ET</t>
   </si>
 </sst>
 </file>
@@ -509,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A9CF87-BF1B-4ACF-BA9D-771153123C0A}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,8 +717,8 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -743,8 +822,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -788,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1142.07</v>
@@ -823,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1055.43</v>
@@ -858,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1116.76</v>
@@ -883,8 +962,8 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -893,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>1444.02</v>
@@ -1023,8 +1102,8 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>3</v>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1033,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>1211.22</v>
@@ -1068,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <v>1075.8399999999999</v>
@@ -1093,8 +1172,8 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1103,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>1062.17</v>
@@ -1138,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>1122.8399999999999</v>
@@ -1173,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1143.7</v>
@@ -1212,7 +1291,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,4 +1798,1152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0578A0D4-F38B-4852-8AAD-45FDEEF53179}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1154.3499999999999</v>
+      </c>
+      <c r="H2">
+        <v>1849</v>
+      </c>
+      <c r="I2">
+        <v>2004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>19.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1067.1400000000001</v>
+      </c>
+      <c r="H3">
+        <v>1556</v>
+      </c>
+      <c r="I3">
+        <v>1817</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>23.8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1142.07</v>
+      </c>
+      <c r="H4">
+        <v>1309</v>
+      </c>
+      <c r="I4">
+        <v>1725</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>24.4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1224.19</v>
+      </c>
+      <c r="H5">
+        <v>994</v>
+      </c>
+      <c r="I5">
+        <v>1167</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1211.21</v>
+      </c>
+      <c r="H6">
+        <v>1348</v>
+      </c>
+      <c r="I6">
+        <v>1709</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1103.3499999999999</v>
+      </c>
+      <c r="H7">
+        <v>1670</v>
+      </c>
+      <c r="I7">
+        <v>1912</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>24.1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1116.76</v>
+      </c>
+      <c r="H8">
+        <v>1564</v>
+      </c>
+      <c r="I8">
+        <v>1680</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1055.43</v>
+      </c>
+      <c r="H9">
+        <v>1718</v>
+      </c>
+      <c r="I9">
+        <v>1995</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>23.7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1128.4000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1246</v>
+      </c>
+      <c r="I10">
+        <v>1810</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1144.6600000000001</v>
+      </c>
+      <c r="H11">
+        <v>1339</v>
+      </c>
+      <c r="I11">
+        <v>1797</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>23.4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1097.3</v>
+      </c>
+      <c r="H12">
+        <v>1449</v>
+      </c>
+      <c r="I12">
+        <v>1990</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>24.5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1197.04</v>
+      </c>
+      <c r="H13">
+        <v>1512</v>
+      </c>
+      <c r="I13">
+        <v>1855</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>23.4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1202.26</v>
+      </c>
+      <c r="H14">
+        <v>1613</v>
+      </c>
+      <c r="I14">
+        <v>1866</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1444.02</v>
+      </c>
+      <c r="H15">
+        <v>1621</v>
+      </c>
+      <c r="I15">
+        <v>1766</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>23.8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>1075.8399999999999</v>
+      </c>
+      <c r="H16">
+        <v>2142</v>
+      </c>
+      <c r="I16">
+        <v>2465</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>1122.8399999999999</v>
+      </c>
+      <c r="H17">
+        <v>2211</v>
+      </c>
+      <c r="I17">
+        <v>2327</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1062.17</v>
+      </c>
+      <c r="H18">
+        <v>1838</v>
+      </c>
+      <c r="I18">
+        <v>1905</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>23.2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>1143.7</v>
+      </c>
+      <c r="H19">
+        <v>1210</v>
+      </c>
+      <c r="I19">
+        <v>1440</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>24.5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>1140.6500000000001</v>
+      </c>
+      <c r="H20">
+        <v>2285</v>
+      </c>
+      <c r="I20">
+        <v>2549</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>1078.04</v>
+      </c>
+      <c r="H21">
+        <v>1944</v>
+      </c>
+      <c r="I21">
+        <v>2353</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>1224.76</v>
+      </c>
+      <c r="H22">
+        <v>1518</v>
+      </c>
+      <c r="I22">
+        <v>1804</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>23.6</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>1085.74</v>
+      </c>
+      <c r="H23">
+        <v>1833</v>
+      </c>
+      <c r="I23">
+        <v>1923</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1186.47</v>
+      </c>
+      <c r="H24">
+        <v>2017</v>
+      </c>
+      <c r="I24">
+        <v>2169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>20.7</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>1175.21</v>
+      </c>
+      <c r="H25">
+        <v>1744</v>
+      </c>
+      <c r="I25">
+        <v>2142</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>21.9</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>711.03</v>
+      </c>
+      <c r="H26">
+        <v>1340</v>
+      </c>
+      <c r="I26">
+        <v>1779</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>22.3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>1166.22</v>
+      </c>
+      <c r="H27">
+        <v>1487</v>
+      </c>
+      <c r="I27">
+        <v>2251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>24.4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>1123.0899999999999</v>
+      </c>
+      <c r="H28">
+        <v>1584</v>
+      </c>
+      <c r="I28">
+        <v>2152</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>25.3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>1120.26</v>
+      </c>
+      <c r="H29">
+        <v>1477</v>
+      </c>
+      <c r="I29">
+        <v>2066</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>24.9</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>1165.83</v>
+      </c>
+      <c r="H30">
+        <v>1458</v>
+      </c>
+      <c r="I30">
+        <v>2064</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>23.4</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>1163.07</v>
+      </c>
+      <c r="H31">
+        <v>1729</v>
+      </c>
+      <c r="I31">
+        <v>2458</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>22.7</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>1118.92</v>
+      </c>
+      <c r="H32">
+        <v>1948</v>
+      </c>
+      <c r="I32">
+        <v>2346</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1100.77</v>
+      </c>
+      <c r="H33">
+        <v>1427</v>
+      </c>
+      <c r="I33">
+        <v>1890</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>20.7</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>1040.31</v>
+      </c>
+      <c r="H34">
+        <v>1281</v>
+      </c>
+      <c r="I34">
+        <v>1677</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>25.3</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>1185.52</v>
+      </c>
+      <c r="H35">
+        <v>1714</v>
+      </c>
+      <c r="I35">
+        <v>2088</v>
+      </c>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>